--- a/hardware/Steppers/Stepper_Calculator.xlsx
+++ b/hardware/Steppers/Stepper_Calculator.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD4023-C255-436C-94A3-B65809B93FB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD440B4C-C2FE-464D-B79E-5876DC9A3DC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Step Angle</t>
   </si>
@@ -91,16 +91,6 @@
     <t>Motor Pulley Tooth Count</t>
   </si>
   <si>
-    <t>Screw Lead advance Per Turn</t>
-  </si>
-  <si>
-    <t>These are specifically TR8x8(P2) lead screws. 8mm diameter, 8mm movement per revolution, quad start with 2mm thread pitch. The important fact is that the nut advances 8mm per turn. This is because there are four independent thread paths spaced at 2mm from one another.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">there are at least two common types of 8mm lead screws. One is 2mm pitch 4-start (8mm per turn), the other is 2mm pitch single start (2mm per turn). This listing is for 2mm pitch 4-start lead screw.
-Note: in your printer settings 400.00 is number of steps with 1.8° motors and 1/16th stepping </t>
-  </si>
-  <si>
     <t>1 micro step distance</t>
   </si>
   <si>
@@ -132,13 +122,50 @@
   </si>
   <si>
     <t>therotical maximum resolution</t>
+  </si>
+  <si>
+    <t>Number of Start indicates the relation between lead and pitch of a screw. Mathematically, Lead = n * Pitch, where n = number of start.
+Now,Lead is the distance between two corresponding points on the SAME thread.
+Whereas Pitch is the distance between two corresponding points on the two CONSECUTIVE threads.
+So, in SINGLE START (n=1) ,pitch equals lead. In DOUBLE START (n=2), the distance between two corresponding points on the SAME thread (lead) is twice of that of on the two CONSECUTIVE thread (pitch).
+Likewise, triple start :)</t>
+  </si>
+  <si>
+    <t>Lead Length Calculator</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Screw Lead</t>
+  </si>
+  <si>
+    <t>These are specifically TR8x8(P2) lead screws. 8mm diameter, 8mm movement per revolution, quad start with 2mm thread pitch. The important fact is that the nut advances 8mm per turn. This is because there are four independent thread paths spaced at 2mm from one another. "there are at least two common types of 8mm lead screws. One is 2mm pitch 4-start (8mm per turn), the other is 2mm pitch single start (2mm per turn). This listing is for 2mm pitch 4-start lead screw. Note: in your printer settings 400.00 is number of steps with 1.8° motors and 1/16th stepping"</t>
+  </si>
+  <si>
+    <t>Lead = n * Pitch, where n = number of start.
+Now,Lead is the distance between two corresponding points on the SAME thread.
+Whereas Pitch is the distance between two corresponding points on the two CONSECUTIVE threads.
+SINGLE START (n=1) ,pitch equals lead. In DOUBLE START (n=2), the distance between two corresponding points on the SAME thread (lead) is twice of that of on the two CONSECUTIVE thread (pitch). Likewise, triple start
+Tr8*8 Leadscrew This is a Pitch 2mm, 4 Starts.
+Equation: 8mm Lead= 2mm Pitch*4 Starts.
+Tr8*8 Leadscrew, the first 8 of Tr8 means it is for 8mm diameter Leadscrew and the second 8 means the Lead. 8mm Lead means when drive by a stepper driver in Full Step mode, it moves 8mm per revolution.</t>
+  </si>
+  <si>
+    <t>Tr8*8 Leadscrew, the first 8 of Tr8 means it is for 8mm diameter Leadscrew and the second 8 means the Lead. 8mm Lead means when drive by a stepper driver in Full Step mode, it moves 8mm per revolution.</t>
+  </si>
+  <si>
+    <t>A stepper motor converts electronic signals into mechanical movement each time an incoming pulse is applied to the motor. Each pulse moves the shaft in fixed increments. If the stepper motor has a 1.8° step resolution, then in order for shaft to rotate one complete revolution, in full step operation, the stepper motor would need to receive 200 pulses, 360° ÷ 1.8 = 200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +193,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +210,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,7 +264,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,6 +291,164 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="https://qph.fs.quoracdn.net/main-qimg-0dc9d7c706439ebda7cc594df088914a.webp">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD9F94E-4799-4CD5-820B-B631697F6F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9395460" y="5204460"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4061460</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1948322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://qph.fs.quoracdn.net/main-qimg-0dc9d7c706439ebda7cc594df088914a">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C1A6AC-0D6B-404B-889E-4EB6BCECF4B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3695700" y="6111240"/>
+          <a:ext cx="3489960" cy="1849262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1585349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D6BA8E-A01F-4D57-9CF8-814F385FBBDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6172201"/>
+          <a:ext cx="3825240" cy="1425328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,19 +714,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="160.21875" customWidth="1"/>
+    <col min="6" max="6" width="160.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,17 +740,17 @@
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="13">
         <v>1.8</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -547,18 +761,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="11">
         <f>360/B2</f>
         <v>200</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
@@ -567,7 +783,7 @@
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -580,7 +796,7 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="13">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -593,9 +809,9 @@
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11">
         <f>B5*B4</f>
         <v>40</v>
       </c>
@@ -611,7 +827,7 @@
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="13">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -627,9 +843,9 @@
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="8">
+        <v>25</v>
+      </c>
+      <c r="B8" s="12">
         <f>(B3*B7)/B6</f>
         <v>80</v>
       </c>
@@ -637,15 +853,15 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12">
         <f>1/B8</f>
         <v>1.2500000000000001E-2</v>
       </c>
@@ -653,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -661,9 +877,9 @@
     </row>
     <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="8">
+        <v>31</v>
+      </c>
+      <c r="B10" s="12">
         <f>B3/B6</f>
         <v>5</v>
       </c>
@@ -677,7 +893,7 @@
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="12">
         <f>1/B10</f>
         <v>0.2</v>
       </c>
@@ -685,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -699,32 +915,28 @@
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="13">
         <v>1.8</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="F14" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="11">
         <f>360/B14</f>
         <v>200</v>
       </c>
@@ -733,23 +945,28 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5">
+        <v>38</v>
+      </c>
+      <c r="B16" s="13">
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="13">
         <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -757,23 +974,24 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="13">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="13">
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -783,27 +1001,31 @@
         <f>"MCU needs to tick " &amp;B19 &amp; " times to achive 1 full step"</f>
         <v>MCU needs to tick 16 times to achive 1 full step</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="8">
+        <v>25</v>
+      </c>
+      <c r="B20" s="12">
         <f>(B15*B19)/B16*(B17/B18)</f>
         <v>400</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="8">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12">
         <f>1/B20</f>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -811,12 +1033,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="8">
+        <v>31</v>
+      </c>
+      <c r="B22" s="12">
         <f>B15/B16*(B17/B18)</f>
         <v>25</v>
       </c>
@@ -824,12 +1047,13 @@
         <v>13</v>
       </c>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="12">
         <f>1/B22</f>
         <v>0.04</v>
       </c>
@@ -837,11 +1061,113 @@
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="F25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/hardware/Steppers/Stepper_Calculator.xlsx
+++ b/hardware/Steppers/Stepper_Calculator.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD440B4C-C2FE-464D-B79E-5876DC9A3DC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E4BBCF-1C4A-4476-ADA2-93CC56429649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,12 +15,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>Step Angle</t>
   </si>
@@ -138,9 +143,6 @@
   </si>
   <si>
     <t>Lead</t>
-  </si>
-  <si>
-    <t>Screw Lead</t>
   </si>
   <si>
     <t>These are specifically TR8x8(P2) lead screws. 8mm diameter, 8mm movement per revolution, quad start with 2mm thread pitch. The important fact is that the nut advances 8mm per turn. This is because there are four independent thread paths spaced at 2mm from one another. "there are at least two common types of 8mm lead screws. One is 2mm pitch 4-start (8mm per turn), the other is 2mm pitch single start (2mm per turn). This listing is for 2mm pitch 4-start lead screw. Note: in your printer settings 400.00 is number of steps with 1.8° motors and 1/16th stepping"</t>
@@ -159,6 +161,15 @@
   </si>
   <si>
     <t>A stepper motor converts electronic signals into mechanical movement each time an incoming pulse is applied to the motor. Each pulse moves the shaft in fixed increments. If the stepper motor has a 1.8° step resolution, then in order for shaft to rotate one complete revolution, in full step operation, the stepper motor would need to receive 200 pulses, 360° ÷ 1.8 = 200</t>
+  </si>
+  <si>
+    <t>Screw Pitch</t>
+  </si>
+  <si>
+    <t>Screw Starts</t>
+  </si>
+  <si>
+    <t>Screw Lead (movement per revolution)</t>
   </si>
 </sst>
 </file>
@@ -299,13 +310,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -347,13 +358,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4061460</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1948322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -408,13 +419,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>160021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1585349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -714,15 +725,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
@@ -773,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -945,182 +956,193 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B16" s="13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B17" s="13">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="13">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="B18" s="11">
+        <f>B17*B16</f>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="F18" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B19" s="13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f>"MCU needs to tick " &amp;B19 &amp; " times to achive 1 full step"</f>
-        <v>MCU needs to tick 16 times to achive 1 full step</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="12">
-        <f>(B15*B19)/B16*(B17/B18)</f>
-        <v>400</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="13">
+        <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="12">
-        <f>1/B20</f>
-        <v>2.5000000000000001E-3</v>
+        <v>5</v>
+      </c>
+      <c r="B21" s="13">
+        <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>"MCU needs to tick " &amp;B21 &amp; " times to achive 1 full step"</f>
+        <v>MCU needs to tick 16 times to achive 1 full step</v>
+      </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B22" s="12">
-        <f>B15/B16*(B17/B18)</f>
-        <v>25</v>
+        <f>(B15*B21)/B18*(B19/B20)</f>
+        <v>400</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>15</v>
+      <c r="A23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="12">
         <f>1/B22</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="12">
+        <f>B15/B18*(B19/B20)</f>
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="12">
+        <f>1/B24</f>
         <v>0.04</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="F25" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="F27" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B29" s="5">
         <v>2</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B30" s="5">
         <v>8</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1164,6 +1186,18 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
